--- a/laliga_all_seasons.xlsx
+++ b/laliga_all_seasons.xlsx
@@ -12,6 +12,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sestevek naslovov" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vsota podatkov" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Povprecje zmag in tock" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Napredovanje_izpad" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -43411,4 +43412,640 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Sezona</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Izpadle ekipe</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Napredovane ekipe</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1993-1994</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>{'Lerida', 'Osasuna', 'Rayo Vallecano'}</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>{'Espanyol', 'Real Betis', 'Compostela'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1994-1995</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>{'CD Logroñés'}</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>{'Mérida UD', 'UD Salamanca', 'Rayo Vallecano'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1995-1996</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>{'Albacete', 'Mérida UD', 'UD Salamanca'}</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>{'CF Extremadura', 'Hércules', 'CD Logroñés'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1996-1997</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>{'CD Logroñés', 'Sevilla', 'Hércules', 'Rayo Vallecano', 'CF Extremadura'}</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>{'Mérida UD', 'UD Salamanca', 'Mallorca'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1997-1998</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>{'Mérida UD', 'Sporting Gijon', 'Compostela'}</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>{'Alaves', 'Villarreal', 'CF Extremadura'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1998-1999</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>{'Villarreal', 'Tenerife', 'UD Salamanca', 'CF Extremadura'}</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>{'Numancia', 'Sevilla', 'Malaga', 'Rayo Vallecano'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1999-2000</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>{'Atletico Madrid', 'Sevilla', 'Real Betis'}</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>{'Las Palmas', 'Villarreal', 'Osasuna'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2000-2001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>{'Numancia', 'Real Oviedo', 'Racing Santander'}</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>{'Sevilla', 'Tenerife', 'Real Betis'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2001-2002</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>{'Las Palmas', 'Real Zaragoza', 'Tenerife'}</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>{'Atletico Madrid', 'Racing Santander', 'Recreativo Huelva'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2002-2003</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>{'Recreativo Huelva', 'Alaves', 'Rayo Vallecano'}</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>{'Real Murcia', 'Albacete', 'Real Zaragoza'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2003-2004</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>{'Real Murcia', 'Real Valladolid', 'Celta Vigo'}</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>{'Numancia', 'Getafe', 'Levante'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2004-2005</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>{'Albacete', 'Numancia', 'Levante'}</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>{'Alaves', 'Cadiz', 'Celta Vigo'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2005-2006</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>{'Alaves', 'Cadiz', 'Malaga'}</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>{'Recreativo Huelva', 'Gimnàstic Tarr…', 'Levante'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2006-2007</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>{'Gimnàstic Tarr…', 'Real Sociedad', 'Celta Vigo'}</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>{'Real Murcia', 'Almeria', 'Real Valladolid'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2007-2008</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>{'Real Murcia', 'Real Zaragoza', 'Levante'}</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>{'Numancia', 'Malaga', 'Sporting Gijon'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2008-2009</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>{'Recreativo Huelva', 'Numancia', 'Real Betis'}</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>{'Xerez', 'Real Zaragoza', 'Tenerife'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2009-2010</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>{'Xerez', 'Tenerife', 'Real Valladolid'}</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>{'Hércules', 'Real Sociedad', 'Levante'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2010-2011</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>{'Hércules', 'Almeria', 'Deportivo La C…'}</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>{'Granada', 'Rayo Vallecano', 'Real Betis'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2011-2012</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>{'Racing Santander', 'Villarreal', 'Sporting Gijon'}</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>{'Celta Vigo', 'Real Valladolid', 'Deportivo La C…'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2012-2013</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>{'Real Zaragoza', 'Mallorca', 'Deportivo La C…'}</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>{'Villarreal', 'Elche', 'Almeria'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2013-2014</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>{'Osasuna', 'Real Valladolid', 'Real Betis'}</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>{'Eibar', 'Córdoba', 'Deportivo La C…'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2014-2015</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>{'Elche', 'Córdoba', 'Almeria'}</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>{'Las Palmas', 'Sporting Gijon', 'Real Betis'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2015-2016</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>{'Getafe', 'Rayo Vallecano', 'Levante'}</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>{'Alaves', 'Leganes', 'Osasuna'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2016-2017</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>{'Granada', 'Osasuna', 'Sporting Gijon'}</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>{'Levante', 'Getafe', 'Girona'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2017-2018</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>{'Las Palmas', 'Malaga', 'Deportivo La C…'}</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>{'Huesca', 'Rayo Vallecano', 'Real Valladolid'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2018-2019</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>{'Huesca', 'Rayo Vallecano', 'Girona'}</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>{'Granada', 'Osasuna', 'Mallorca'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2019-2020</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>{'Espanyol', 'Leganes', 'Mallorca'}</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>{'Elche', 'Cadiz', 'Huesca'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2020-2021</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>{'Huesca', 'Real Valladolid', 'Eibar'}</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>{'Espanyol', 'Rayo Vallecano', 'Mallorca'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2021-2022</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>{'Alaves', 'Granada', 'Levante'}</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>{'Almeria', 'Real Valladolid', 'Girona'}</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2022-2023</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>{'Espanyol', 'Elche', 'Real Valladolid'}</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>{'Las Palmas', 'Granada', 'Alaves'}</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/laliga_all_seasons.xlsx
+++ b/laliga_all_seasons.xlsx
@@ -13,6 +13,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vsota podatkov" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Povprecje zmag in tock" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Napredovanje_izpad" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Najvecd zadetkov po sezonah" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -44048,4 +44049,598 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Season</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Team</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Goals for</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>1993-1994</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1994-1995</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1995-1996</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Valencia</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1996-1997</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1997-1998</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Atletico Madrid</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1998-1999</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1999-2000</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2000-2001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2001-2002</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2002-2003</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2003-2004</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2004-2005</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2005-2006</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2006-2007</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2007-2008</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2008-2009</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>2009-2010</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>2010-2011</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>2011-2012</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2012-2013</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2013-2014</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2014-2015</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>2015-2016</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>2016-2017</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>2017-2018</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>2018-2019</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>2019-2020</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>2020-2021</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Barcelona</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>2021-2022</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2022-2023</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Real Madrid</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/laliga_all_seasons.xlsx
+++ b/laliga_all_seasons.xlsx
@@ -11,9 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Razlicne ekipe" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sestevek naslovov" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Vsota podatkov" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Povprecje zmag in tock" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Napredovanje_izpad" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Najvecd zadetkov po sezonah" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Napredovanje_izpad" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Najvecd zadetkov po sezonah" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -40388,47 +40387,49 @@
       </c>
       <c r="D606" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E606" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>29</t>
         </is>
       </c>
       <c r="F606" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="G606" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1</t>
         </is>
       </c>
       <c r="H606" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>87</t>
         </is>
       </c>
       <c r="I606" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>26</t>
         </is>
       </c>
       <c r="J606" t="inlineStr">
         <is>
-          <t>+5</t>
+          <t>+61</t>
         </is>
       </c>
       <c r="K606" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>95</t>
         </is>
       </c>
       <c r="L606" t="inlineStr">
         <is>
-          <t>W
+          <t>D
+D
+W
 W
 W</t>
         </is>
@@ -40447,53 +40448,56 @@
       </c>
       <c r="C607" t="inlineStr">
         <is>
-          <t>Rayo Vallecano</t>
+          <t>Barcelona</t>
         </is>
       </c>
       <c r="D607" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E607" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>26</t>
         </is>
       </c>
       <c r="F607" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="G607" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="H607" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>79</t>
         </is>
       </c>
       <c r="I607" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>44</t>
         </is>
       </c>
       <c r="J607" t="inlineStr">
         <is>
-          <t>+4</t>
+          <t>+35</t>
         </is>
       </c>
       <c r="K607" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>85</t>
         </is>
       </c>
       <c r="L607" t="inlineStr">
         <is>
           <t>W
-W</t>
+W
+W
+W
+L</t>
         </is>
       </c>
     </row>
@@ -40510,52 +40514,55 @@
       </c>
       <c r="C608" t="inlineStr">
         <is>
-          <t>Valencia</t>
+          <t>Girona</t>
         </is>
       </c>
       <c r="D608" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E608" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>25</t>
         </is>
       </c>
       <c r="F608" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="G608" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7</t>
         </is>
       </c>
       <c r="H608" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>85</t>
         </is>
       </c>
       <c r="I608" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>46</t>
         </is>
       </c>
       <c r="J608" t="inlineStr">
         <is>
-          <t>+2</t>
+          <t>+39</t>
         </is>
       </c>
       <c r="K608" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>81</t>
         </is>
       </c>
       <c r="L608" t="inlineStr">
         <is>
           <t>W
+W
+L
+D
 W</t>
         </is>
       </c>
@@ -40573,53 +40580,56 @@
       </c>
       <c r="C609" t="inlineStr">
         <is>
-          <t>Girona</t>
+          <t>Atletico Madrid</t>
         </is>
       </c>
       <c r="D609" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E609" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>24</t>
         </is>
       </c>
       <c r="F609" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>4</t>
         </is>
       </c>
       <c r="G609" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H609" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>70</t>
         </is>
       </c>
       <c r="I609" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>43</t>
         </is>
       </c>
       <c r="J609" t="inlineStr">
         <is>
-          <t>+3</t>
+          <t>+27</t>
         </is>
       </c>
       <c r="K609" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>76</t>
         </is>
       </c>
       <c r="L609" t="inlineStr">
         <is>
           <t>W
-D</t>
+L
+W
+W
+W</t>
         </is>
       </c>
     </row>
@@ -40636,52 +40646,55 @@
       </c>
       <c r="C610" t="inlineStr">
         <is>
-          <t>Atletico Madrid</t>
+          <t>Athletic Bilbao</t>
         </is>
       </c>
       <c r="D610" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E610" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>19</t>
         </is>
       </c>
       <c r="F610" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G610" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="H610" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>61</t>
         </is>
       </c>
       <c r="I610" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>37</t>
         </is>
       </c>
       <c r="J610" t="inlineStr">
         <is>
-          <t>+2</t>
+          <t>+24</t>
         </is>
       </c>
       <c r="K610" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>68</t>
         </is>
       </c>
       <c r="L610" t="inlineStr">
         <is>
-          <t>D
+          <t>W
+W
+L
+D
 W</t>
         </is>
       </c>
@@ -40699,53 +40712,56 @@
       </c>
       <c r="C611" t="inlineStr">
         <is>
-          <t>Barcelona</t>
+          <t>Real Sociedad</t>
         </is>
       </c>
       <c r="D611" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E611" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>16</t>
         </is>
       </c>
       <c r="F611" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G611" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="H611" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>51</t>
         </is>
       </c>
       <c r="I611" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>39</t>
         </is>
       </c>
       <c r="J611" t="inlineStr">
         <is>
-          <t>+2</t>
+          <t>+12</t>
         </is>
       </c>
       <c r="K611" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>60</t>
         </is>
       </c>
       <c r="L611" t="inlineStr">
         <is>
-          <t>W
-D</t>
+          <t>L
+W
+W
+L
+W</t>
         </is>
       </c>
     </row>
@@ -40767,47 +40783,50 @@
       </c>
       <c r="D612" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E612" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="F612" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G612" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="H612" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>48</t>
         </is>
       </c>
       <c r="I612" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>45</t>
         </is>
       </c>
       <c r="J612" t="inlineStr">
         <is>
-          <t>+1</t>
+          <t>+3</t>
         </is>
       </c>
       <c r="K612" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>57</t>
         </is>
       </c>
       <c r="L612" t="inlineStr">
         <is>
           <t>D
+L
+D
+W
 W</t>
         </is>
       </c>
@@ -40825,37 +40844,37 @@
       </c>
       <c r="C613" t="inlineStr">
         <is>
-          <t>Alaves</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="D613" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E613" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="F613" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G613" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13</t>
         </is>
       </c>
       <c r="H613" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>65</t>
         </is>
       </c>
       <c r="I613" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>65</t>
         </is>
       </c>
       <c r="J613" t="inlineStr">
@@ -40865,12 +40884,15 @@
       </c>
       <c r="K613" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>53</t>
         </is>
       </c>
       <c r="L613" t="inlineStr">
         <is>
-          <t>W
+          <t>D
+D
+W
+W
 L</t>
         </is>
       </c>
@@ -40888,53 +40910,56 @@
       </c>
       <c r="C614" t="inlineStr">
         <is>
-          <t>Osasuna</t>
+          <t>Valencia</t>
         </is>
       </c>
       <c r="D614" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E614" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>13</t>
         </is>
       </c>
       <c r="F614" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G614" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H614" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>40</t>
         </is>
       </c>
       <c r="I614" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>45</t>
         </is>
       </c>
       <c r="J614" t="inlineStr">
         <is>
-          <t>+0</t>
+          <t>-5</t>
         </is>
       </c>
       <c r="K614" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>49</t>
         </is>
       </c>
       <c r="L614" t="inlineStr">
         <is>
-          <t>L
-W</t>
+          <t>D
+L
+L
+D
+L</t>
         </is>
       </c>
     </row>
@@ -40951,53 +40976,56 @@
       </c>
       <c r="C615" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Alaves</t>
         </is>
       </c>
       <c r="D615" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E615" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F615" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G615" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>16</t>
         </is>
       </c>
       <c r="H615" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>36</t>
         </is>
       </c>
       <c r="I615" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>46</t>
         </is>
       </c>
       <c r="J615" t="inlineStr">
         <is>
-          <t>+0</t>
+          <t>-10</t>
         </is>
       </c>
       <c r="K615" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>46</t>
         </is>
       </c>
       <c r="L615" t="inlineStr">
         <is>
-          <t>W
-L</t>
+          <t>D
+W
+L
+D
+W</t>
         </is>
       </c>
     </row>
@@ -41014,52 +41042,55 @@
       </c>
       <c r="C616" t="inlineStr">
         <is>
-          <t>Athletic Bilbao</t>
+          <t>Osasuna</t>
         </is>
       </c>
       <c r="D616" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E616" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>12</t>
         </is>
       </c>
       <c r="F616" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G616" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>17</t>
         </is>
       </c>
       <c r="H616" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>45</t>
         </is>
       </c>
       <c r="I616" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>56</t>
         </is>
       </c>
       <c r="J616" t="inlineStr">
         <is>
-          <t>+0</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="K616" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>45</t>
         </is>
       </c>
       <c r="L616" t="inlineStr">
         <is>
-          <t>W
+          <t>D
+W
+D
+D
 L</t>
         </is>
       </c>
@@ -41077,54 +41108,56 @@
       </c>
       <c r="C617" t="inlineStr">
         <is>
-          <t>Real Sociedad</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="D617" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E617" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F617" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>13</t>
         </is>
       </c>
       <c r="G617" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="H617" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>42</t>
         </is>
       </c>
       <c r="I617" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>54</t>
         </is>
       </c>
       <c r="J617" t="inlineStr">
         <is>
-          <t>+0</t>
+          <t>-12</t>
         </is>
       </c>
       <c r="K617" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>43</t>
         </is>
       </c>
       <c r="L617" t="inlineStr">
         <is>
-          <t>D
-D
-D</t>
+          <t>L
+L
+L
+L
+L</t>
         </is>
       </c>
     </row>
@@ -41141,52 +41174,55 @@
       </c>
       <c r="C618" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Celta Vigo</t>
         </is>
       </c>
       <c r="D618" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E618" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F618" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G618" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>17</t>
         </is>
       </c>
       <c r="H618" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>46</t>
         </is>
       </c>
       <c r="I618" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>57</t>
         </is>
       </c>
       <c r="J618" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="K618" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>41</t>
         </is>
       </c>
       <c r="L618" t="inlineStr">
         <is>
-          <t>L
+          <t>D
+W
+W
+L
 W</t>
         </is>
       </c>
@@ -41204,54 +41240,56 @@
       </c>
       <c r="C619" t="inlineStr">
         <is>
-          <t>Las Palmas</t>
+          <t>Sevilla</t>
         </is>
       </c>
       <c r="D619" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E619" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F619" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="G619" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>17</t>
         </is>
       </c>
       <c r="H619" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>48</t>
         </is>
       </c>
       <c r="I619" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>54</t>
         </is>
       </c>
       <c r="J619" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-6</t>
         </is>
       </c>
       <c r="K619" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>41</t>
         </is>
       </c>
       <c r="L619" t="inlineStr">
         <is>
-          <t>D
-L
-D</t>
+          <t>L
+L
+L
+L
+W</t>
         </is>
       </c>
     </row>
@@ -41273,48 +41311,51 @@
       </c>
       <c r="D620" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E620" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F620" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>16</t>
         </is>
       </c>
       <c r="G620" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="H620" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>33</t>
         </is>
       </c>
       <c r="I620" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>44</t>
         </is>
       </c>
       <c r="J620" t="inlineStr">
         <is>
-          <t>-1</t>
+          <t>-11</t>
         </is>
       </c>
       <c r="K620" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>40</t>
         </is>
       </c>
       <c r="L620" t="inlineStr">
         <is>
-          <t>L
-D</t>
+          <t>W
+D
+D
+W
+L</t>
         </is>
       </c>
     </row>
@@ -41331,53 +41372,55 @@
       </c>
       <c r="C621" t="inlineStr">
         <is>
-          <t>Celta Vigo</t>
+          <t>Las Palmas</t>
         </is>
       </c>
       <c r="D621" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E621" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10</t>
         </is>
       </c>
       <c r="F621" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>10</t>
         </is>
       </c>
       <c r="G621" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>18</t>
         </is>
       </c>
       <c r="H621" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>33</t>
         </is>
       </c>
       <c r="I621" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>47</t>
         </is>
       </c>
       <c r="J621" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-14</t>
         </is>
       </c>
       <c r="K621" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>40</t>
         </is>
       </c>
       <c r="L621" t="inlineStr">
         <is>
-          <t>L
-D
+          <t>D
+D
+D
+L
 L</t>
         </is>
       </c>
@@ -41395,53 +41438,56 @@
       </c>
       <c r="C622" t="inlineStr">
         <is>
-          <t>Getafe</t>
+          <t>Rayo Vallecano</t>
         </is>
       </c>
       <c r="D622" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E622" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8</t>
         </is>
       </c>
       <c r="F622" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="G622" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>16</t>
         </is>
       </c>
       <c r="H622" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>29</t>
         </is>
       </c>
       <c r="I622" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>48</t>
         </is>
       </c>
       <c r="J622" t="inlineStr">
         <is>
-          <t>-3</t>
+          <t>-19</t>
         </is>
       </c>
       <c r="K622" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>38</t>
         </is>
       </c>
       <c r="L622" t="inlineStr">
         <is>
           <t>L
-D</t>
+L
+W
+D
+L</t>
         </is>
       </c>
     </row>
@@ -41458,52 +41504,55 @@
       </c>
       <c r="C623" t="inlineStr">
         <is>
-          <t>Sevilla</t>
+          <t>Cadiz</t>
         </is>
       </c>
       <c r="D623" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E623" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="F623" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>15</t>
         </is>
       </c>
       <c r="G623" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>17</t>
         </is>
       </c>
       <c r="H623" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>26</t>
         </is>
       </c>
       <c r="I623" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>55</t>
         </is>
       </c>
       <c r="J623" t="inlineStr">
         <is>
-          <t>-2</t>
+          <t>-29</t>
         </is>
       </c>
       <c r="K623" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>33</t>
         </is>
       </c>
       <c r="L623" t="inlineStr">
         <is>
           <t>L
+D
+W
+W
 L</t>
         </is>
       </c>
@@ -41526,48 +41575,51 @@
       </c>
       <c r="D624" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E624" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="F624" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12</t>
         </is>
       </c>
       <c r="G624" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>23</t>
         </is>
       </c>
       <c r="H624" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>43</t>
         </is>
       </c>
       <c r="I624" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>75</t>
         </is>
       </c>
       <c r="J624" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-32</t>
         </is>
       </c>
       <c r="K624" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="L624" t="inlineStr">
         <is>
-          <t>L
-L</t>
+          <t>W
+D
+L
+L
+W</t>
         </is>
       </c>
     </row>
@@ -41589,47 +41641,50 @@
       </c>
       <c r="D625" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>38</t>
         </is>
       </c>
       <c r="E625" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="F625" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9</t>
         </is>
       </c>
       <c r="G625" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>25</t>
         </is>
       </c>
       <c r="H625" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>38</t>
         </is>
       </c>
       <c r="I625" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>79</t>
         </is>
       </c>
       <c r="J625" t="inlineStr">
         <is>
-          <t>-4</t>
+          <t>-41</t>
         </is>
       </c>
       <c r="K625" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>21</t>
         </is>
       </c>
       <c r="L625" t="inlineStr">
         <is>
           <t>L
+L
+L
+L
 L</t>
         </is>
       </c>
@@ -42292,28 +42347,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1150</v>
+        <v>1186</v>
       </c>
       <c r="C2" t="n">
-        <v>736</v>
+        <v>761</v>
       </c>
       <c r="D2" t="n">
-        <v>229</v>
+        <v>235</v>
       </c>
       <c r="E2" t="n">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="F2" t="n">
-        <v>2602</v>
+        <v>2679</v>
       </c>
       <c r="G2" t="n">
-        <v>1107</v>
+        <v>1151</v>
       </c>
       <c r="H2" t="n">
-        <v>1495</v>
+        <v>1528</v>
       </c>
       <c r="I2" t="n">
-        <v>2394</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="3">
@@ -42323,28 +42378,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1151</v>
+        <v>1186</v>
       </c>
       <c r="C3" t="n">
-        <v>728</v>
+        <v>754</v>
       </c>
       <c r="D3" t="n">
-        <v>219</v>
+        <v>227</v>
       </c>
       <c r="E3" t="n">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="F3" t="n">
-        <v>2498</v>
+        <v>2579</v>
       </c>
       <c r="G3" t="n">
-        <v>1204</v>
+        <v>1229</v>
       </c>
       <c r="H3" t="n">
-        <v>1294</v>
+        <v>1350</v>
       </c>
       <c r="I3" t="n">
-        <v>2361</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="4">
@@ -42354,28 +42409,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1074</v>
+        <v>1110</v>
       </c>
       <c r="C4" t="n">
-        <v>522</v>
+        <v>545</v>
       </c>
       <c r="D4" t="n">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="E4" t="n">
-        <v>291</v>
+        <v>301</v>
       </c>
       <c r="F4" t="n">
-        <v>1704</v>
+        <v>1771</v>
       </c>
       <c r="G4" t="n">
-        <v>1168</v>
+        <v>1210</v>
       </c>
       <c r="H4" t="n">
-        <v>536</v>
+        <v>561</v>
       </c>
       <c r="I4" t="n">
-        <v>1801</v>
+        <v>1873</v>
       </c>
     </row>
     <row r="5">
@@ -42385,28 +42440,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1150</v>
+        <v>1186</v>
       </c>
       <c r="C5" t="n">
-        <v>508</v>
+        <v>519</v>
       </c>
       <c r="D5" t="n">
-        <v>295</v>
+        <v>305</v>
       </c>
       <c r="E5" t="n">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="F5" t="n">
-        <v>1723</v>
+        <v>1760</v>
       </c>
       <c r="G5" t="n">
-        <v>1349</v>
+        <v>1393</v>
       </c>
       <c r="H5" t="n">
-        <v>374</v>
+        <v>367</v>
       </c>
       <c r="I5" t="n">
-        <v>1792</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="6">
@@ -42416,28 +42471,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1150</v>
+        <v>1186</v>
       </c>
       <c r="C6" t="n">
-        <v>425</v>
+        <v>443</v>
       </c>
       <c r="D6" t="n">
-        <v>324</v>
+        <v>335</v>
       </c>
       <c r="E6" t="n">
-        <v>401</v>
+        <v>408</v>
       </c>
       <c r="F6" t="n">
-        <v>1494</v>
+        <v>1553</v>
       </c>
       <c r="G6" t="n">
-        <v>1498</v>
+        <v>1533</v>
       </c>
       <c r="H6" t="n">
-        <v>-4</v>
+        <v>20</v>
       </c>
       <c r="I6" t="n">
-        <v>1567</v>
+        <v>1632</v>
       </c>
     </row>
     <row r="7">
@@ -42447,28 +42502,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1036</v>
+        <v>1072</v>
       </c>
       <c r="C7" t="n">
-        <v>447</v>
+        <v>457</v>
       </c>
       <c r="D7" t="n">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="E7" t="n">
-        <v>337</v>
+        <v>352</v>
       </c>
       <c r="F7" t="n">
-        <v>1497</v>
+        <v>1541</v>
       </c>
       <c r="G7" t="n">
-        <v>1269</v>
+        <v>1317</v>
       </c>
       <c r="H7" t="n">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="I7" t="n">
-        <v>1562</v>
+        <v>1603</v>
       </c>
     </row>
     <row r="8">
@@ -42478,121 +42533,121 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1037</v>
+        <v>1072</v>
       </c>
       <c r="C8" t="n">
-        <v>390</v>
+        <v>406</v>
       </c>
       <c r="D8" t="n">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="E8" t="n">
-        <v>367</v>
+        <v>377</v>
       </c>
       <c r="F8" t="n">
-        <v>1396</v>
+        <v>1445</v>
       </c>
       <c r="G8" t="n">
-        <v>1347</v>
+        <v>1384</v>
       </c>
       <c r="H8" t="n">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="I8" t="n">
-        <v>1426</v>
+        <v>1483</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>Espanyol</t>
+          <t>Villarreal</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1072</v>
+        <v>912</v>
       </c>
       <c r="C9" t="n">
-        <v>351</v>
+        <v>376</v>
       </c>
       <c r="D9" t="n">
-        <v>298</v>
+        <v>241</v>
       </c>
       <c r="E9" t="n">
-        <v>423</v>
+        <v>295</v>
       </c>
       <c r="F9" t="n">
-        <v>1267</v>
+        <v>1308</v>
       </c>
       <c r="G9" t="n">
-        <v>1427</v>
+        <v>1126</v>
       </c>
       <c r="H9" t="n">
-        <v>-160</v>
+        <v>182</v>
       </c>
       <c r="I9" t="n">
-        <v>1337</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Villarreal</t>
+          <t>Real Betis</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>876</v>
+        <v>996</v>
       </c>
       <c r="C10" t="n">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="D10" t="n">
-        <v>230</v>
+        <v>283</v>
       </c>
       <c r="E10" t="n">
-        <v>283</v>
+        <v>356</v>
       </c>
       <c r="F10" t="n">
-        <v>1245</v>
+        <v>1262</v>
       </c>
       <c r="G10" t="n">
-        <v>1063</v>
+        <v>1333</v>
       </c>
       <c r="H10" t="n">
-        <v>182</v>
+        <v>-71</v>
       </c>
       <c r="I10" t="n">
-        <v>1319</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>Real Betis</t>
+          <t>Espanyol</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>960</v>
+        <v>1072</v>
       </c>
       <c r="C11" t="n">
-        <v>344</v>
+        <v>351</v>
       </c>
       <c r="D11" t="n">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="E11" t="n">
-        <v>347</v>
+        <v>423</v>
       </c>
       <c r="F11" t="n">
-        <v>1216</v>
+        <v>1267</v>
       </c>
       <c r="G11" t="n">
-        <v>1289</v>
+        <v>1427</v>
       </c>
       <c r="H11" t="n">
-        <v>-73</v>
+        <v>-160</v>
       </c>
       <c r="I11" t="n">
-        <v>1286</v>
+        <v>1337</v>
       </c>
     </row>
     <row r="12">
@@ -42633,28 +42688,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>923</v>
+        <v>958</v>
       </c>
       <c r="C13" t="n">
-        <v>317</v>
+        <v>327</v>
       </c>
       <c r="D13" t="n">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="E13" t="n">
-        <v>354</v>
+        <v>369</v>
       </c>
       <c r="F13" t="n">
-        <v>1166</v>
+        <v>1211</v>
       </c>
       <c r="G13" t="n">
-        <v>1232</v>
+        <v>1285</v>
       </c>
       <c r="H13" t="n">
-        <v>-66</v>
+        <v>-74</v>
       </c>
       <c r="I13" t="n">
-        <v>1181</v>
+        <v>1221</v>
       </c>
     </row>
     <row r="14">
@@ -42664,28 +42719,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>724</v>
+        <v>760</v>
       </c>
       <c r="C14" t="n">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="D14" t="n">
-        <v>175</v>
+        <v>190</v>
       </c>
       <c r="E14" t="n">
-        <v>290</v>
+        <v>303</v>
       </c>
       <c r="F14" t="n">
-        <v>900</v>
+        <v>932</v>
       </c>
       <c r="G14" t="n">
-        <v>998</v>
+        <v>1040</v>
       </c>
       <c r="H14" t="n">
-        <v>-98</v>
+        <v>-108</v>
       </c>
       <c r="I14" t="n">
-        <v>952</v>
+        <v>991</v>
       </c>
     </row>
     <row r="15">
@@ -42695,59 +42750,59 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>762</v>
+        <v>798</v>
       </c>
       <c r="C15" t="n">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="D15" t="n">
-        <v>206</v>
+        <v>215</v>
       </c>
       <c r="E15" t="n">
-        <v>324</v>
+        <v>340</v>
       </c>
       <c r="F15" t="n">
-        <v>805</v>
+        <v>848</v>
       </c>
       <c r="G15" t="n">
-        <v>1055</v>
+        <v>1109</v>
       </c>
       <c r="H15" t="n">
-        <v>-250</v>
+        <v>-261</v>
       </c>
       <c r="I15" t="n">
-        <v>894</v>
+        <v>936</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Real Valladolid</t>
+          <t>Getafe</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>768</v>
+        <v>722</v>
       </c>
       <c r="C16" t="n">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="D16" t="n">
-        <v>231</v>
+        <v>199</v>
       </c>
       <c r="E16" t="n">
-        <v>325</v>
+        <v>295</v>
       </c>
       <c r="F16" t="n">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="G16" t="n">
-        <v>1070</v>
+        <v>921</v>
       </c>
       <c r="H16" t="n">
-        <v>-283</v>
+        <v>-131</v>
       </c>
       <c r="I16" t="n">
-        <v>851</v>
+        <v>883</v>
       </c>
     </row>
   </sheetData>
@@ -42756,666 +42811,6 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C49"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Team</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Points</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Wins</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Barcelona</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>77.2258064516129</v>
-      </c>
-      <c r="C2" t="n">
-        <v>23.74193548387097</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Real Madrid</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>76.16129032258064</v>
-      </c>
-      <c r="C3" t="n">
-        <v>23.48387096774194</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Atletico Madrid</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>62.10344827586207</v>
-      </c>
-      <c r="C4" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Valencia</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>57.80645161290322</v>
-      </c>
-      <c r="C5" t="n">
-        <v>16.38709677419355</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Sevilla</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>55.78571428571428</v>
-      </c>
-      <c r="C6" t="n">
-        <v>15.96428571428571</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Villarreal</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>54.95833333333334</v>
-      </c>
-      <c r="C7" t="n">
-        <v>15.125</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Deportivo La C…</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>53.91304347826087</v>
-      </c>
-      <c r="C8" t="n">
-        <v>14.95652173913044</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
-          <t>Real Sociedad</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>50.92857142857143</v>
-      </c>
-      <c r="C9" t="n">
-        <v>13.92857142857143</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="inlineStr">
-        <is>
-          <t>Athletic Bilbao</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>50.54838709677419</v>
-      </c>
-      <c r="C10" t="n">
-        <v>13.70967741935484</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="inlineStr">
-        <is>
-          <t>Real Betis</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>49.46153846153846</v>
-      </c>
-      <c r="C11" t="n">
-        <v>13.23076923076923</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="inlineStr">
-        <is>
-          <t>Espanyol</t>
-        </is>
-      </c>
-      <c r="B12" t="n">
-        <v>47.75</v>
-      </c>
-      <c r="C12" t="n">
-        <v>12.53571428571429</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="inlineStr">
-        <is>
-          <t>Mallorca</t>
-        </is>
-      </c>
-      <c r="B13" t="n">
-        <v>47.6</v>
-      </c>
-      <c r="C13" t="n">
-        <v>12.95</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Compostela</t>
-        </is>
-      </c>
-      <c r="B14" t="n">
-        <v>47.5</v>
-      </c>
-      <c r="C14" t="n">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="inlineStr">
-        <is>
-          <t>Celta Vigo</t>
-        </is>
-      </c>
-      <c r="B15" t="n">
-        <v>47.24</v>
-      </c>
-      <c r="C15" t="n">
-        <v>12.68</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="inlineStr">
-        <is>
-          <t>Real Zaragoza</t>
-        </is>
-      </c>
-      <c r="B16" t="n">
-        <v>46.83333333333334</v>
-      </c>
-      <c r="C16" t="n">
-        <v>12.66666666666667</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="inlineStr">
-        <is>
-          <t>Malaga</t>
-        </is>
-      </c>
-      <c r="B17" t="n">
-        <v>46.52941176470588</v>
-      </c>
-      <c r="C17" t="n">
-        <v>12.29411764705882</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="inlineStr">
-        <is>
-          <t>Getafe</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>44.26315789473684</v>
-      </c>
-      <c r="C18" t="n">
-        <v>11.47368421052632</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>Tenerife</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>44</v>
-      </c>
-      <c r="C19" t="n">
-        <v>12.5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>Racing Santander</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>43.38888888888889</v>
-      </c>
-      <c r="C20" t="n">
-        <v>11.27777777777778</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>Eibar</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>43.14285714285715</v>
-      </c>
-      <c r="C21" t="n">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>Real Oviedo</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>42.875</v>
-      </c>
-      <c r="C22" t="n">
-        <v>11.375</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="inlineStr">
-        <is>
-          <t>Osasuna</t>
-        </is>
-      </c>
-      <c r="B23" t="n">
-        <v>42.57142857142857</v>
-      </c>
-      <c r="C23" t="n">
-        <v>11.04761904761905</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="inlineStr">
-        <is>
-          <t>Real Valladolid</t>
-        </is>
-      </c>
-      <c r="B24" t="n">
-        <v>42.55</v>
-      </c>
-      <c r="C24" t="n">
-        <v>10.6</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="inlineStr">
-        <is>
-          <t>Recreativo Huelva</t>
-        </is>
-      </c>
-      <c r="B25" t="n">
-        <v>41.75</v>
-      </c>
-      <c r="C25" t="n">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="inlineStr">
-        <is>
-          <t>Levante</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v>41.64285714285715</v>
-      </c>
-      <c r="C26" t="n">
-        <v>10.57142857142857</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>Alaves</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v>41.61538461538461</v>
-      </c>
-      <c r="C27" t="n">
-        <v>11.23076923076923</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="inlineStr">
-        <is>
-          <t>CF Extremadura</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v>41.5</v>
-      </c>
-      <c r="C28" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>Rayo Vallecano</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v>40.6875</v>
-      </c>
-      <c r="C29" t="n">
-        <v>11.1875</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="inlineStr">
-        <is>
-          <t>Mérida UD</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v>40.5</v>
-      </c>
-      <c r="C30" t="n">
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>Leganes</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v>39.75</v>
-      </c>
-      <c r="C31" t="n">
-        <v>9.75</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="inlineStr">
-        <is>
-          <t>Hércules</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v>38</v>
-      </c>
-      <c r="C32" t="n">
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="inlineStr">
-        <is>
-          <t>Albacete</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v>37.2</v>
-      </c>
-      <c r="C33" t="n">
-        <v>9.800000000000001</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="inlineStr">
-        <is>
-          <t>Sporting Gijon</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v>37.18181818181818</v>
-      </c>
-      <c r="C34" t="n">
-        <v>10.18181818181818</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>Numancia</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v>37</v>
-      </c>
-      <c r="C35" t="n">
-        <v>9.25</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="inlineStr">
-        <is>
-          <t>Elche</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="C36" t="n">
-        <v>8.800000000000001</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="inlineStr">
-        <is>
-          <t>Granada</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v>35.9</v>
-      </c>
-      <c r="C37" t="n">
-        <v>9.300000000000001</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>Girona</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v>35.25</v>
-      </c>
-      <c r="C38" t="n">
-        <v>9.25</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="inlineStr">
-        <is>
-          <t>UD Salamanca</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v>35</v>
-      </c>
-      <c r="C39" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Almeria</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v>35</v>
-      </c>
-      <c r="C40" t="n">
-        <v>9.125</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="inlineStr">
-        <is>
-          <t>Xerez</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v>34</v>
-      </c>
-      <c r="C41" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="inlineStr">
-        <is>
-          <t>Huesca</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v>33.5</v>
-      </c>
-      <c r="C42" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="inlineStr">
-        <is>
-          <t>Cadiz</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v>32.8</v>
-      </c>
-      <c r="C43" t="n">
-        <v>7.6</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>Las Palmas</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>32.16666666666666</v>
-      </c>
-      <c r="C44" t="n">
-        <v>8.166666666666666</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="inlineStr">
-        <is>
-          <t>Real Murcia</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>28</v>
-      </c>
-      <c r="C45" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="inlineStr">
-        <is>
-          <t>Gimnàstic Tarr…</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>28</v>
-      </c>
-      <c r="C46" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>Lerida</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>27</v>
-      </c>
-      <c r="C47" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="inlineStr">
-        <is>
-          <t>CD Logroñés</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>26.33333333333333</v>
-      </c>
-      <c r="C48" t="n">
-        <v>6.666666666666667</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="inlineStr">
-        <is>
-          <t>Córdoba</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>20</v>
-      </c>
-      <c r="C49" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -43457,12 +42852,12 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>{'Lerida', 'Osasuna', 'Rayo Vallecano'}</t>
+          <t>{'Lerida', 'Rayo Vallecano', 'Osasuna'}</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>{'Espanyol', 'Real Betis', 'Compostela'}</t>
+          <t>{'Espanyol', 'Compostela', 'Real Betis'}</t>
         </is>
       </c>
     </row>
@@ -43482,7 +42877,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>{'Mérida UD', 'UD Salamanca', 'Rayo Vallecano'}</t>
+          <t>{'Mérida UD', 'Rayo Vallecano', 'UD Salamanca'}</t>
         </is>
       </c>
     </row>
@@ -43517,12 +42912,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>{'CD Logroñés', 'Sevilla', 'Hércules', 'Rayo Vallecano', 'CF Extremadura'}</t>
+          <t>{'CF Extremadura', 'CD Logroñés', 'Rayo Vallecano', 'Hércules', 'Sevilla'}</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>{'Mérida UD', 'UD Salamanca', 'Mallorca'}</t>
+          <t>{'Mérida UD', 'Mallorca', 'UD Salamanca'}</t>
         </is>
       </c>
     </row>
@@ -43537,12 +42932,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>{'Mérida UD', 'Sporting Gijon', 'Compostela'}</t>
+          <t>{'Mérida UD', 'Compostela', 'Sporting Gijon'}</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>{'Alaves', 'Villarreal', 'CF Extremadura'}</t>
+          <t>{'CF Extremadura', 'Alaves', 'Villarreal'}</t>
         </is>
       </c>
     </row>
@@ -43557,12 +42952,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>{'Villarreal', 'Tenerife', 'UD Salamanca', 'CF Extremadura'}</t>
+          <t>{'CF Extremadura', 'UD Salamanca', 'Tenerife', 'Villarreal'}</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>{'Numancia', 'Sevilla', 'Malaga', 'Rayo Vallecano'}</t>
+          <t>{'Sevilla', 'Rayo Vallecano', 'Malaga', 'Numancia'}</t>
         </is>
       </c>
     </row>
@@ -43577,12 +42972,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>{'Atletico Madrid', 'Sevilla', 'Real Betis'}</t>
+          <t>{'Sevilla', 'Atletico Madrid', 'Real Betis'}</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>{'Las Palmas', 'Villarreal', 'Osasuna'}</t>
+          <t>{'Osasuna', 'Villarreal', 'Las Palmas'}</t>
         </is>
       </c>
     </row>
@@ -43617,12 +43012,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>{'Las Palmas', 'Real Zaragoza', 'Tenerife'}</t>
+          <t>{'Real Zaragoza', 'Tenerife', 'Las Palmas'}</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>{'Atletico Madrid', 'Racing Santander', 'Recreativo Huelva'}</t>
+          <t>{'Recreativo Huelva', 'Racing Santander', 'Atletico Madrid'}</t>
         </is>
       </c>
     </row>
@@ -43637,12 +43032,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>{'Recreativo Huelva', 'Alaves', 'Rayo Vallecano'}</t>
+          <t>{'Recreativo Huelva', 'Rayo Vallecano', 'Alaves'}</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>{'Real Murcia', 'Albacete', 'Real Zaragoza'}</t>
+          <t>{'Albacete', 'Real Zaragoza', 'Real Murcia'}</t>
         </is>
       </c>
     </row>
@@ -43657,12 +43052,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>{'Real Murcia', 'Real Valladolid', 'Celta Vigo'}</t>
+          <t>{'Real Valladolid', 'Real Murcia', 'Celta Vigo'}</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>{'Numancia', 'Getafe', 'Levante'}</t>
+          <t>{'Numancia', 'Levante', 'Getafe'}</t>
         </is>
       </c>
     </row>
@@ -43677,12 +43072,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>{'Albacete', 'Numancia', 'Levante'}</t>
+          <t>{'Albacete', 'Levante', 'Numancia'}</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>{'Alaves', 'Cadiz', 'Celta Vigo'}</t>
+          <t>{'Cadiz', 'Alaves', 'Celta Vigo'}</t>
         </is>
       </c>
     </row>
@@ -43697,12 +43092,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>{'Alaves', 'Cadiz', 'Malaga'}</t>
+          <t>{'Malaga', 'Cadiz', 'Alaves'}</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>{'Recreativo Huelva', 'Gimnàstic Tarr…', 'Levante'}</t>
+          <t>{'Levante', 'Recreativo Huelva', 'Gimnàstic Tarr…'}</t>
         </is>
       </c>
     </row>
@@ -43717,12 +43112,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>{'Gimnàstic Tarr…', 'Real Sociedad', 'Celta Vigo'}</t>
+          <t>{'Real Sociedad', 'Celta Vigo', 'Gimnàstic Tarr…'}</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>{'Real Murcia', 'Almeria', 'Real Valladolid'}</t>
+          <t>{'Real Valladolid', 'Real Murcia', 'Almeria'}</t>
         </is>
       </c>
     </row>
@@ -43737,12 +43132,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>{'Real Murcia', 'Real Zaragoza', 'Levante'}</t>
+          <t>{'Levante', 'Real Zaragoza', 'Real Murcia'}</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>{'Numancia', 'Malaga', 'Sporting Gijon'}</t>
+          <t>{'Numancia', 'Sporting Gijon', 'Malaga'}</t>
         </is>
       </c>
     </row>
@@ -43757,12 +43152,12 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>{'Recreativo Huelva', 'Numancia', 'Real Betis'}</t>
+          <t>{'Numancia', 'Recreativo Huelva', 'Real Betis'}</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>{'Xerez', 'Real Zaragoza', 'Tenerife'}</t>
+          <t>{'Xerez', 'Tenerife', 'Real Zaragoza'}</t>
         </is>
       </c>
     </row>
@@ -43777,12 +43172,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>{'Xerez', 'Tenerife', 'Real Valladolid'}</t>
+          <t>{'Real Valladolid', 'Tenerife', 'Xerez'}</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>{'Hércules', 'Real Sociedad', 'Levante'}</t>
+          <t>{'Levante', 'Hércules', 'Real Sociedad'}</t>
         </is>
       </c>
     </row>
@@ -43797,12 +43192,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>{'Hércules', 'Almeria', 'Deportivo La C…'}</t>
+          <t>{'Hércules', 'Deportivo La C…', 'Almeria'}</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>{'Granada', 'Rayo Vallecano', 'Real Betis'}</t>
+          <t>{'Rayo Vallecano', 'Granada', 'Real Betis'}</t>
         </is>
       </c>
     </row>
@@ -43817,12 +43212,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>{'Racing Santander', 'Villarreal', 'Sporting Gijon'}</t>
+          <t>{'Villarreal', 'Racing Santander', 'Sporting Gijon'}</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>{'Celta Vigo', 'Real Valladolid', 'Deportivo La C…'}</t>
+          <t>{'Real Valladolid', 'Deportivo La C…', 'Celta Vigo'}</t>
         </is>
       </c>
     </row>
@@ -43837,12 +43232,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>{'Real Zaragoza', 'Mallorca', 'Deportivo La C…'}</t>
+          <t>{'Mallorca', 'Real Zaragoza', 'Deportivo La C…'}</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>{'Villarreal', 'Elche', 'Almeria'}</t>
+          <t>{'Almeria', 'Villarreal', 'Elche'}</t>
         </is>
       </c>
     </row>
@@ -43857,7 +43252,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>{'Osasuna', 'Real Valladolid', 'Real Betis'}</t>
+          <t>{'Real Valladolid', 'Osasuna', 'Real Betis'}</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -43877,12 +43272,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>{'Elche', 'Córdoba', 'Almeria'}</t>
+          <t>{'Almeria', 'Córdoba', 'Elche'}</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>{'Las Palmas', 'Sporting Gijon', 'Real Betis'}</t>
+          <t>{'Real Betis', 'Sporting Gijon', 'Las Palmas'}</t>
         </is>
       </c>
     </row>
@@ -43897,12 +43292,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>{'Getafe', 'Rayo Vallecano', 'Levante'}</t>
+          <t>{'Levante', 'Rayo Vallecano', 'Getafe'}</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>{'Alaves', 'Leganes', 'Osasuna'}</t>
+          <t>{'Osasuna', 'Leganes', 'Alaves'}</t>
         </is>
       </c>
     </row>
@@ -43917,12 +43312,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>{'Granada', 'Osasuna', 'Sporting Gijon'}</t>
+          <t>{'Sporting Gijon', 'Granada', 'Osasuna'}</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>{'Levante', 'Getafe', 'Girona'}</t>
+          <t>{'Levante', 'Girona', 'Getafe'}</t>
         </is>
       </c>
     </row>
@@ -43937,12 +43332,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>{'Las Palmas', 'Malaga', 'Deportivo La C…'}</t>
+          <t>{'Malaga', 'Deportivo La C…', 'Las Palmas'}</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>{'Huesca', 'Rayo Vallecano', 'Real Valladolid'}</t>
+          <t>{'Real Valladolid', 'Rayo Vallecano', 'Huesca'}</t>
         </is>
       </c>
     </row>
@@ -43957,12 +43352,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>{'Huesca', 'Rayo Vallecano', 'Girona'}</t>
+          <t>{'Rayo Vallecano', 'Huesca', 'Girona'}</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>{'Granada', 'Osasuna', 'Mallorca'}</t>
+          <t>{'Mallorca', 'Granada', 'Osasuna'}</t>
         </is>
       </c>
     </row>
@@ -43977,12 +43372,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>{'Espanyol', 'Leganes', 'Mallorca'}</t>
+          <t>{'Espanyol', 'Mallorca', 'Leganes'}</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>{'Elche', 'Cadiz', 'Huesca'}</t>
+          <t>{'Cadiz', 'Huesca', 'Elche'}</t>
         </is>
       </c>
     </row>
@@ -43997,7 +43392,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>{'Huesca', 'Real Valladolid', 'Eibar'}</t>
+          <t>{'Real Valladolid', 'Huesca', 'Eibar'}</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -44017,12 +43412,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>{'Alaves', 'Granada', 'Levante'}</t>
+          <t>{'Levante', 'Granada', 'Alaves'}</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>{'Almeria', 'Real Valladolid', 'Girona'}</t>
+          <t>{'Real Valladolid', 'Girona', 'Almeria'}</t>
         </is>
       </c>
     </row>
@@ -44037,12 +43432,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>{'Espanyol', 'Elche', 'Real Valladolid'}</t>
+          <t>{'Real Valladolid', 'Espanyol', 'Elche'}</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>{'Las Palmas', 'Granada', 'Alaves'}</t>
+          <t>{'Alaves', 'Granada', 'Las Palmas'}</t>
         </is>
       </c>
     </row>
@@ -44051,7 +43446,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -44637,7 +44032,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>6</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>
